--- a/AVGFrame/Assets/StreamingAssets/chapter.xlsx
+++ b/AVGFrame/Assets/StreamingAssets/chapter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="146">
   <si>
     <t>Index</t>
   </si>
@@ -105,7 +105,7 @@
     <t>bg7</t>
   </si>
   <si>
-    <t>粉色</t>
+    <t>粉</t>
   </si>
   <si>
     <t>pink0</t>
@@ -120,7 +120,7 @@
     <t>人家和老公亲热着呢，哪有功夫搭理咱们单身狗啊。</t>
   </si>
   <si>
-    <t>橙色</t>
+    <t>橙</t>
   </si>
   <si>
     <t>pink0/orange0</t>
@@ -195,9 +195,6 @@
     <t>真是的，来的太晚了啦！</t>
   </si>
   <si>
-    <t>粉</t>
-  </si>
-  <si>
     <t>man0/pink0</t>
   </si>
   <si>
@@ -361,9 +358,6 @@
   </si>
   <si>
     <t>bg11</t>
-  </si>
-  <si>
-    <t>橙</t>
   </si>
   <si>
     <t>orange0</t>
@@ -482,14 +476,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,99 +589,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,8 +603,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,7 +628,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,55 +700,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,31 +724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,13 +742,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,13 +766,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,7 +778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,7 +790,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,24 +822,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -857,6 +833,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,11 +874,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,26 +911,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,145 +927,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1433,7 +1427,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2042,10 +2036,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>36</v>
@@ -2065,7 +2059,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>49</v>
@@ -2083,7 +2077,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>49</v>
@@ -2112,22 +2106,22 @@
         <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2138,10 +2132,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2156,10 +2150,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2174,10 +2168,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2192,10 +2186,10 @@
         <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>50</v>
@@ -2207,7 +2201,7 @@
         <v>31</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2218,10 +2212,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2236,16 +2230,16 @@
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>36</v>
@@ -2262,16 +2256,16 @@
         <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>36</v>
@@ -2288,10 +2282,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2306,10 +2300,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2324,16 +2318,16 @@
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>52</v>
@@ -2350,10 +2344,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2368,10 +2362,10 @@
         <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>50</v>
@@ -2383,7 +2377,7 @@
         <v>52</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2394,22 +2388,22 @@
         <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2420,10 +2414,10 @@
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2438,10 +2432,10 @@
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2453,13 +2447,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2474,10 +2468,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2492,10 +2486,10 @@
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2510,10 +2504,10 @@
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2528,10 +2522,10 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2542,13 +2536,13 @@
         <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>30</v>
@@ -2557,7 +2551,7 @@
         <v>52</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2565,20 +2559,20 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="J34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2586,13 +2580,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2604,13 +2598,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2625,13 +2619,13 @@
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>30</v>
@@ -2640,7 +2634,7 @@
         <v>52</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2651,10 +2645,10 @@
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2665,13 +2659,13 @@
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>30</v>
@@ -2680,7 +2674,7 @@
         <v>52</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2691,13 +2685,13 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>30</v>
@@ -2706,7 +2700,7 @@
         <v>52</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2717,10 +2711,10 @@
         <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2731,10 +2725,10 @@
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2745,10 +2739,10 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2756,7 +2750,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2767,22 +2761,22 @@
         <v>26</v>
       </c>
       <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" t="s">
         <v>114</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>115</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="G45" t="s">
-        <v>117</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2793,10 +2787,10 @@
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H46" s="1"/>
     </row>
@@ -2808,10 +2802,10 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2822,19 +2816,19 @@
         <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" t="s">
         <v>114</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>115</v>
-      </c>
-      <c r="F48" t="s">
-        <v>116</v>
-      </c>
-      <c r="G48" t="s">
-        <v>117</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>37</v>
@@ -2848,16 +2842,16 @@
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E49" t="s">
         <v>50</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>36</v>
@@ -2874,10 +2868,10 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2888,19 +2882,19 @@
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" t="s">
         <v>114</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>115</v>
-      </c>
-      <c r="F51" t="s">
-        <v>116</v>
-      </c>
-      <c r="G51" t="s">
-        <v>117</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>39</v>
@@ -2914,22 +2908,22 @@
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
         <v>50</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2937,17 +2931,17 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G53" s="1"/>
       <c r="J53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2958,22 +2952,22 @@
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" t="s">
         <v>114</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>115</v>
       </c>
-      <c r="F54" t="s">
-        <v>116</v>
-      </c>
-      <c r="G54" t="s">
-        <v>117</v>
-      </c>
       <c r="H54" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2981,16 +2975,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J55" t="s">
         <v>131</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J55" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3001,10 +2995,10 @@
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>50</v>
@@ -3016,7 +3010,7 @@
         <v>52</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3027,10 +3021,10 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -3042,10 +3036,10 @@
         <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>50</v>
@@ -3054,10 +3048,10 @@
         <v>51</v>
       </c>
       <c r="G58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3068,22 +3062,22 @@
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3094,22 +3088,22 @@
         <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3120,22 +3114,22 @@
         <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3146,10 +3140,10 @@
         <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>50</v>
@@ -3161,7 +3155,7 @@
         <v>52</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3172,10 +3166,10 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" s="1"/>
     </row>
@@ -3187,22 +3181,22 @@
         <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3213,10 +3207,10 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3227,10 +3221,10 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3238,7 +3232,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/AVGFrame/Assets/StreamingAssets/chapter.xlsx
+++ b/AVGFrame/Assets/StreamingAssets/chapter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12540"/>
+    <workbookView windowWidth="24345" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="155">
   <si>
     <t>Index</t>
   </si>
@@ -54,6 +54,15 @@
     <t>Memory</t>
   </si>
   <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>HScene</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
     <t>Aside</t>
   </si>
   <si>
@@ -69,6 +78,9 @@
     <t>大雪纷飞，天气阴冷，但无论是当地居民，还是路过的游客，都掩不住他们脸上的幸福。</t>
   </si>
   <si>
+    <t>Animation</t>
+  </si>
+  <si>
     <t>情侣们在铁塔下拥抱接吻，塞纳河旁尽是搀扶行走的老人。</t>
   </si>
   <si>
@@ -180,6 +192,12 @@
     <t>阴暗的小仓库，一个柔弱的金发双马尾贫乳妹子被一群大汉围住。</t>
   </si>
   <si>
+    <t>ev1_1</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
     <t>这些看起来十分恶心的大叔正在围着那个女孩窃窃私语着该怎么去找她家勒索的时候……</t>
   </si>
   <si>
@@ -189,18 +207,30 @@
     <t>最后看起来一脸瘦弱没吃饱饭的少年勉强着抱起了少女。</t>
   </si>
   <si>
+    <t>on</t>
+  </si>
+  <si>
     <t>大小姐，我来了。</t>
   </si>
   <si>
     <t>真是的，来的太晚了啦！</t>
   </si>
   <si>
+    <t>ev2_1</t>
+  </si>
+  <si>
     <t>man0/pink0</t>
   </si>
   <si>
+    <t>2_1</t>
+  </si>
+  <si>
     <t>电视里的二次元美少女泪眼汪汪地摆出惹人怜爱的表情。说完台词，感人的ＢＧＭ响起。</t>
   </si>
   <si>
+    <t>ev2</t>
+  </si>
+  <si>
     <t>少年露出温柔的笑容，在某个电视机前美少女发着光的眼神下和自家大小姐唇唇相对。</t>
   </si>
   <si>
@@ -394,9 +424,6 @@
   </si>
   <si>
     <t>歹徒说着按住嫣雪红高翘的臀部，将自己的肉棒狠狠的插进了嫣雪红的蜜穴中，用力的抽插起来。</t>
-  </si>
-  <si>
-    <t>ev2</t>
   </si>
   <si>
     <t>bgv1</t>
@@ -463,8 +490,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -472,6 +499,60 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -483,22 +564,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,11 +585,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -543,9 +616,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,61 +639,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,13 +655,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,109 +715,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,19 +757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,13 +781,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,56 +846,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -913,12 +890,62 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -927,10 +954,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,133 +966,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1424,10 +1451,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1441,7 +1468,7 @@
     <col min="9" max="9" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1477,6 +1504,15 @@
       </c>
       <c r="L1" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1484,20 +1520,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1505,45 +1541,35 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1555,13 +1581,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1573,13 +1599,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1591,13 +1617,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1609,13 +1635,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1627,126 +1653,130 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="I12" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1754,55 +1784,55 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="J19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1810,24 +1840,38 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" t="s">
-        <v>25</v>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1840,10 +1884,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1856,7 +1900,7 @@
     <col min="9" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1892,6 +1936,15 @@
       </c>
       <c r="L1" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1899,188 +1952,209 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="O4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="O5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>41</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
+      <c r="K9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2092,10 +2166,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2103,25 +2177,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2129,13 +2203,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2147,13 +2221,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2165,13 +2239,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2183,25 +2257,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2209,13 +2283,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2227,25 +2301,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2253,25 +2327,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2279,13 +2353,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2297,13 +2371,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2315,25 +2389,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2341,13 +2415,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2359,25 +2433,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2385,25 +2459,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2411,13 +2485,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2429,13 +2503,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2447,13 +2521,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2465,13 +2539,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2483,13 +2557,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2501,13 +2575,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2519,13 +2593,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2533,25 +2607,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2559,20 +2633,20 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="J34" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2580,13 +2654,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2598,13 +2672,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2616,25 +2690,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2642,13 +2716,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2656,25 +2730,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2682,25 +2756,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2708,13 +2782,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2722,13 +2796,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2736,13 +2810,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2750,7 +2824,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2758,25 +2832,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G45" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2784,13 +2858,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H46" s="1"/>
     </row>
@@ -2799,13 +2873,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2813,25 +2887,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G48" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2839,25 +2913,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2865,13 +2939,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2879,25 +2953,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G51" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2905,25 +2979,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2931,17 +3005,17 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="G53" s="1"/>
       <c r="J53" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2949,25 +3023,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G54" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2975,16 +3049,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J55" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2992,25 +3066,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3018,13 +3092,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -3033,25 +3107,25 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3059,25 +3133,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3085,25 +3159,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3111,25 +3185,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3137,25 +3211,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G62" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3163,13 +3237,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E63" s="1"/>
     </row>
@@ -3178,25 +3252,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3204,13 +3278,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3218,13 +3292,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3232,7 +3306,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/AVGFrame/Assets/StreamingAssets/chapter.xlsx
+++ b/AVGFrame/Assets/StreamingAssets/chapter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="158">
   <si>
     <t>Index</t>
   </si>
@@ -207,6 +207,9 @@
     <t>最后看起来一脸瘦弱没吃饱饭的少年勉强着抱起了少女。</t>
   </si>
   <si>
+    <t>1_2</t>
+  </si>
+  <si>
     <t>on</t>
   </si>
   <si>
@@ -312,7 +315,7 @@
     <t>奇妙女体会所/御姐女警</t>
   </si>
   <si>
-    <t>28/44</t>
+    <t>28/45</t>
   </si>
   <si>
     <t>请给服务员打分与提意见——</t>
@@ -342,18 +345,24 @@
     <t>虽然经受过深喉的训练，但是机器让梅莉雅措手不及。</t>
   </si>
   <si>
-    <t>ev1</t>
-  </si>
-  <si>
     <t>aegi_aya1</t>
   </si>
   <si>
     <t>梅莉雅终于认识到了，前台并没那么简单！她立刻打起精神接待下一位顾客。</t>
   </si>
   <si>
+    <t>ev1_2</t>
+  </si>
+  <si>
+    <t>1_3</t>
+  </si>
+  <si>
     <t>虽然梅莉雅不能说话，但是她还是很完美的完成了接待。</t>
   </si>
   <si>
+    <t>ev1_3</t>
+  </si>
+  <si>
     <t>终于不用受更多的惩罚了！</t>
   </si>
   <si>
@@ -435,7 +444,7 @@
     <t>嫣雪红被插的仰起头娇叫起来，上身在床上颤动着。</t>
   </si>
   <si>
-    <t>ev3</t>
+    <t>ev3_1</t>
   </si>
   <si>
     <t>bgv2</t>
@@ -490,8 +499,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -502,31 +511,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,21 +572,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,8 +602,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,36 +654,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -655,7 +664,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,7 +706,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,25 +730,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,25 +784,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,7 +808,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,31 +832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,43 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,26 +858,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,7 +903,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,21 +928,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,6 +946,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -954,10 +963,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -966,133 +975,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1454,7 +1463,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:O1"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1884,10 +1893,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1989,9 +1998,15 @@
       <c r="D3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="K3" t="s">
         <v>59</v>
       </c>
@@ -2054,8 +2069,11 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O6">
         <v>3</v>
@@ -2069,7 +2087,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>53</v>
@@ -2085,6 +2103,9 @@
       </c>
       <c r="H7" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -2098,16 +2119,16 @@
         <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>40</v>
@@ -2116,7 +2137,7 @@
         <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -2130,10 +2151,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2147,30 +2168,33 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
+    <row r="11" customFormat="1" spans="1:8">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
@@ -2180,22 +2204,22 @@
         <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2206,10 +2230,10 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2224,10 +2248,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2242,10 +2266,10 @@
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2260,10 +2284,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>54</v>
@@ -2275,7 +2299,7 @@
         <v>35</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2286,10 +2310,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2304,16 +2328,16 @@
         <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>40</v>
@@ -2330,16 +2354,16 @@
         <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>40</v>
@@ -2356,10 +2380,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2374,10 +2398,10 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2392,16 +2416,16 @@
         <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>56</v>
@@ -2418,10 +2442,10 @@
         <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2436,10 +2460,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>54</v>
@@ -2451,7 +2475,7 @@
         <v>56</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2462,22 +2486,22 @@
         <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2488,10 +2512,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2506,10 +2530,10 @@
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2521,36 +2545,32 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" ht="12" customHeight="1" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
@@ -2560,10 +2580,10 @@
         <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2581,174 +2601,169 @@
         <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
         <v>104</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="J34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
+      <c r="K36" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>114</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2759,10 +2774,10 @@
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>33</v>
@@ -2774,21 +2789,33 @@
         <v>56</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2799,10 +2826,10 @@
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2813,73 +2840,72 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="B44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="B45" t="s">
         <v>124</v>
       </c>
-      <c r="G45" t="s">
-        <v>125</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>123</v>
+      <c r="H47" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2887,65 +2913,54 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" t="s">
-        <v>124</v>
-      </c>
-      <c r="G48" t="s">
-        <v>125</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E49" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
         <v>132</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="E50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" t="s">
+        <v>128</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2959,63 +2974,59 @@
         <v>133</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F51" t="s">
-        <v>124</v>
-      </c>
-      <c r="G51" t="s">
-        <v>125</v>
+        <v>54</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E52" t="s">
-        <v>54</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="J53" t="s">
-        <v>136</v>
+        <v>126</v>
+      </c>
+      <c r="E53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" t="s">
+        <v>127</v>
+      </c>
+      <c r="G53" t="s">
+        <v>128</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3029,19 +3040,19 @@
         <v>137</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" t="s">
-        <v>124</v>
-      </c>
-      <c r="G54" t="s">
-        <v>125</v>
+        <v>54</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3049,16 +3060,17 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
         <v>138</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="J55" t="s">
         <v>139</v>
-      </c>
-      <c r="J55" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3069,38 +3081,40 @@
         <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
+      </c>
+      <c r="E56" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" t="s">
+        <v>127</v>
+      </c>
+      <c r="G56" t="s">
+        <v>128</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" s="1"/>
+      <c r="J57" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
@@ -3110,10 +3124,10 @@
         <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>54</v>
@@ -3121,38 +3135,27 @@
       <c r="F58" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G58" t="s">
-        <v>125</v>
+      <c r="G58" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>105</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
@@ -3165,19 +3168,19 @@
         <v>146</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
+      </c>
+      <c r="G60" t="s">
+        <v>128</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3191,19 +3194,19 @@
         <v>147</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3214,38 +3217,49 @@
         <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G62" t="s">
-        <v>56</v>
+        <v>148</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
         <v>150</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E63" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
@@ -3258,22 +3272,22 @@
         <v>151</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" t="s">
         <v>56</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3284,29 +3298,70 @@
         <v>153</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>126</v>
+      </c>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s">
         <v>154</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>126</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>121</v>
+      <c r="B67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
